--- a/input/gleitw_aufzeichnung_neu.xlsx
+++ b/input/gleitw_aufzeichnung_neu.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\OneDrive\Desktop\Paragleiten\Flugsportfreunde\Auswerter\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\OneDrive\Desktop\Paragleiten\Flugsportfreunde\pg_auswerter\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA9D647-6859-466E-BBAF-20B01D905466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F3880-AC80-43F5-95C0-39F6EA924E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="1" r:id="rId1"/>
     <sheet name="2026" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="136">
   <si>
     <t>Geschlecht</t>
   </si>
@@ -337,7 +338,103 @@
     <t>Schwarz</t>
   </si>
   <si>
-    <t>Hans-Georg</t>
+    <t>Bi Beta</t>
+  </si>
+  <si>
+    <t>Riegler</t>
+  </si>
+  <si>
+    <t>Maestro 2</t>
+  </si>
+  <si>
+    <t>Tanja</t>
+  </si>
+  <si>
+    <t>Kisch</t>
+  </si>
+  <si>
+    <t>Bolero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Günter </t>
+  </si>
+  <si>
+    <t>Aschbitz</t>
+  </si>
+  <si>
+    <t>Elan 7</t>
+  </si>
+  <si>
+    <t>Pi 3</t>
+  </si>
+  <si>
+    <t>Hafnter</t>
+  </si>
+  <si>
+    <t>Ikuma 3</t>
+  </si>
+  <si>
+    <t>Linz</t>
+  </si>
+  <si>
+    <t>Artik 7 P</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Hörzer</t>
+  </si>
+  <si>
+    <t>Gerhard</t>
+  </si>
+  <si>
+    <t>Fussi</t>
+  </si>
+  <si>
+    <t>Rise</t>
+  </si>
+  <si>
+    <t>Delta 3</t>
+  </si>
+  <si>
+    <t>Nova</t>
+  </si>
+  <si>
+    <t>Wolfi</t>
+  </si>
+  <si>
+    <t>Stückler</t>
+  </si>
+  <si>
+    <t>Summann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mentor 7 </t>
+  </si>
+  <si>
+    <t>Manfred</t>
+  </si>
+  <si>
+    <t>Koppatz</t>
+  </si>
+  <si>
+    <t>Mentor 1</t>
+  </si>
+  <si>
+    <t>Primus</t>
+  </si>
+  <si>
+    <t>Kolmanz</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Helbrecht</t>
+  </si>
+  <si>
+    <t>Alpha 4</t>
   </si>
 </sst>
 </file>
@@ -361,12 +458,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -381,11 +484,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,10 +1521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2533992-A6CA-45D3-AE05-E644C2B06317}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1535,8 @@
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,643 +1576,643 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>14.19519</v>
+      </c>
+      <c r="H2">
+        <v>47.181261999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>14.19905</v>
+      </c>
+      <c r="H3" s="2">
+        <v>47.182899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>14.19951</v>
-      </c>
-      <c r="H2">
-        <v>47.182850000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>14.19595</v>
-      </c>
-      <c r="H3">
-        <v>47.182633000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>14.191417</v>
-      </c>
-      <c r="H4">
-        <v>47.181449999999998</v>
+      <c r="E4" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2">
+        <v>14.201217</v>
+      </c>
+      <c r="H4" s="2">
+        <v>47.181232999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>14.19755</v>
+        <v>14.203882999999999</v>
       </c>
       <c r="H5">
-        <v>47.184249999999999</v>
+        <v>47.182316999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>14.188106810235499</v>
+        <v>14.205641999999999</v>
       </c>
       <c r="H6">
-        <v>47.183437636048801</v>
+        <v>47.182080999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>14.198488510235499</v>
+        <v>14.19772</v>
       </c>
       <c r="H7">
-        <v>47.183273228209003</v>
+        <v>47.181145000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
       <c r="G8">
-        <v>14.206755731747499</v>
+        <v>14.203749999999999</v>
       </c>
       <c r="H8">
-        <v>47.181092863603098</v>
+        <v>47.182433000000003</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="F9" t="s">
         <v>4</v>
       </c>
       <c r="G9">
-        <v>14.1998906237309</v>
+        <v>14.203882999999999</v>
       </c>
       <c r="H9">
-        <v>47.183193744467602</v>
+        <v>47.182316999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>14.187300525575001</v>
+        <v>14.211544999999999</v>
       </c>
       <c r="H10">
-        <v>47.183484787360001</v>
+        <v>47.180002000000002</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G11">
-        <v>14.1931082679053</v>
+        <v>14.2039128134953</v>
       </c>
       <c r="H11">
-        <v>47.185396175081898</v>
+        <v>47.182219522204903</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>14.19633</v>
+        <v>14.198437999999999</v>
       </c>
       <c r="H12">
-        <v>47.181379999999997</v>
+        <v>47.181716999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
       </c>
       <c r="G13">
-        <v>14.1991192832448</v>
+        <v>14.199018000000001</v>
       </c>
       <c r="H13">
-        <v>47.184067651515299</v>
+        <v>47.18233</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14">
-        <v>14.2032945525657</v>
+        <v>14.194900000000001</v>
       </c>
       <c r="H14">
-        <v>47.182809469017698</v>
+        <v>47.181283000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>83</v>
+        <v>15</v>
       </c>
       <c r="E15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G15">
-        <v>14.206558425574899</v>
+        <v>14.201541000000001</v>
       </c>
       <c r="H15">
-        <v>47.180915001747003</v>
+        <v>47.182346000000003</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>135</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>14.188812281400599</v>
+        <v>14.209899999999999</v>
       </c>
       <c r="H16">
-        <v>47.1830231688269</v>
+        <v>47.180498999999998</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>14.206072252565599</v>
+        <v>14.203431</v>
       </c>
       <c r="H17">
-        <v>47.18033118684</v>
+        <v>47.182369000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>14.1976778913101</v>
+        <v>14.198853</v>
       </c>
       <c r="H18">
-        <v>47.182657485632497</v>
+        <v>47.182397000000002</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>14.197632510235501</v>
+        <v>14.198903</v>
       </c>
       <c r="H19">
-        <v>47.184509118011199</v>
+        <v>47.182594000000002</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20">
-        <v>14.1943974120795</v>
+        <v>14.191330000000001</v>
       </c>
       <c r="H20">
-        <v>47.1814348467625</v>
+        <v>47.181541000000003</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>14.196400000000001</v>
+        <v>14.191684</v>
       </c>
       <c r="H21">
-        <v>47.182732999999999</v>
+        <v>47.181533000000002</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22">
-        <v>14.205633000000001</v>
+        <v>14.211278</v>
       </c>
       <c r="H22">
-        <v>47.182116999999998</v>
+        <v>47.179974000000001</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
       <c r="G23">
-        <v>14.2055239544098</v>
+        <v>14.194466</v>
       </c>
       <c r="H23">
-        <v>47.182064645940798</v>
+        <v>47.181446000000001</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24">
-        <v>14.1889819660611</v>
+        <v>14.200381999999999</v>
       </c>
       <c r="H24">
-        <v>47.183062712448503</v>
+        <v>47.181407999999998</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>14.198725025574999</v>
+        <v>14.196807</v>
       </c>
       <c r="H25">
-        <v>47.183746227461903</v>
+        <v>47.181398000000002</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>14.189769999999999</v>
+        <v>14.1996</v>
       </c>
       <c r="H26">
-        <v>47.182499999999997</v>
+        <v>47.180767000000003</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,45 +2226,54 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G27">
-        <v>14.194699999999999</v>
+        <v>14.2000491123123</v>
       </c>
       <c r="H27">
-        <v>47.183100000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G28">
-        <v>14.19333</v>
-      </c>
-      <c r="H28">
-        <v>47.1813</v>
+        <v>47.182146617527003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C0762C-FE2B-4992-BC34-71D89CA57CF0}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/input/gleitw_aufzeichnung_neu.xlsx
+++ b/input/gleitw_aufzeichnung_neu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\OneDrive\Desktop\Paragleiten\Flugsportfreunde\pg_auswerter\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79F3880-AC80-43F5-95C0-39F6EA924E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BC5CF-270D-4CB3-9BC0-4E0BBE7DF012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,9 +368,6 @@
     <t>Pi 3</t>
   </si>
   <si>
-    <t>Hafnter</t>
-  </si>
-  <si>
     <t>Ikuma 3</t>
   </si>
   <si>
@@ -435,6 +432,9 @@
   </si>
   <si>
     <t>Alpha 4</t>
+  </si>
+  <si>
+    <t>Hafner</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1830,7 @@
         <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
@@ -1839,7 +1839,7 @@
         <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -1856,16 +1856,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
         <v>6</v>
@@ -1891,7 +1891,7 @@
         <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
         <v>6</v>
@@ -1905,10 +1905,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
@@ -1943,7 +1943,7 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F16" t="s">
         <v>3</v>
@@ -1957,10 +1957,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
         <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>120</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1969,7 +1969,7 @@
         <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -1983,10 +1983,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
         <v>124</v>
-      </c>
-      <c r="B18" t="s">
-        <v>125</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1995,7 +1995,7 @@
         <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
         <v>4</v>
@@ -2012,16 +2012,16 @@
         <v>101</v>
       </c>
       <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
         <v>126</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>127</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
@@ -2165,10 +2165,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" t="s">
-        <v>129</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -2177,7 +2177,7 @@
         <v>22</v>
       </c>
       <c r="E25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
@@ -2191,19 +2191,19 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
-        <v>132</v>
-      </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
         <v>4</v>
